--- a/quiz_week4_3.xlsx
+++ b/quiz_week4_3.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13635" windowHeight="11655"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13635" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="979">
   <si>
     <t>5CT_0013000001</t>
   </si>
@@ -2022,6 +2023,948 @@
   <si>
     <t>tagged_ej</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9BSAA0001-0000030</t>
+  </si>
+  <si>
+    <t>엠마누엘</t>
+  </si>
+  <si>
+    <t>엠마누엘/NNP</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000040</t>
+  </si>
+  <si>
+    <t>웅가로</t>
+  </si>
+  <si>
+    <t>웅가로/NNP</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000050</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>//SP</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000060</t>
+  </si>
+  <si>
+    <t>의상서</t>
+  </si>
+  <si>
+    <t>의상__01/NNG + 서/JKB</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000070</t>
+  </si>
+  <si>
+    <t>실내</t>
+  </si>
+  <si>
+    <t>실내/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000080</t>
+  </si>
+  <si>
+    <t>장식품으로…</t>
+  </si>
+  <si>
+    <t>장식품/NNG + 으로/JKB + …/SE</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000090</t>
+  </si>
+  <si>
+    <t>디자인</t>
+  </si>
+  <si>
+    <t>디자인/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000100</t>
+  </si>
+  <si>
+    <t>세계</t>
+  </si>
+  <si>
+    <t>세계__02/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000110</t>
+  </si>
+  <si>
+    <t>넓혀</t>
+  </si>
+  <si>
+    <t>넓히/VV + 어/EC</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000120</t>
+  </si>
+  <si>
+    <t>프랑스의</t>
+  </si>
+  <si>
+    <t>프랑스/NNP + 의/JKG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000130</t>
+  </si>
+  <si>
+    <t>세계적인</t>
+  </si>
+  <si>
+    <t>세계__02/NNG + 적/XSN + 이/VCP + ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000140</t>
+  </si>
+  <si>
+    <t>의상</t>
+  </si>
+  <si>
+    <t>의상__01/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000150</t>
+  </si>
+  <si>
+    <t>디자이너</t>
+  </si>
+  <si>
+    <t>디자이너/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000160</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000170</t>
+  </si>
+  <si>
+    <t>웅가로가</t>
+  </si>
+  <si>
+    <t>웅가로/NNP + 가/JKS</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000180</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000190</t>
+  </si>
+  <si>
+    <t>장식용</t>
+  </si>
+  <si>
+    <t>장식__05/NNG + 용/XSN</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000200</t>
+  </si>
+  <si>
+    <t>직물</t>
+  </si>
+  <si>
+    <t>직물/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000210</t>
+  </si>
+  <si>
+    <t>디자이너로</t>
+  </si>
+  <si>
+    <t>디자이너/NNG + 로/JKB</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000220</t>
+  </si>
+  <si>
+    <t>나섰다.</t>
+  </si>
+  <si>
+    <t>나서/VV + 었/EP + 다/EF + ./SF</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000230</t>
+  </si>
+  <si>
+    <t>웅가로는</t>
+  </si>
+  <si>
+    <t>웅가로/NNP + 는/JX</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000240</t>
+  </si>
+  <si>
+    <t>침실과</t>
+  </si>
+  <si>
+    <t>침실/NNG + 과/JC</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000250</t>
+  </si>
+  <si>
+    <t>식당,</t>
+  </si>
+  <si>
+    <t>식당/NNG + ,/SP</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000260</t>
+  </si>
+  <si>
+    <t>욕실에서</t>
+  </si>
+  <si>
+    <t>욕실/NNG + 에서/JKB</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000270</t>
+  </si>
+  <si>
+    <t>사용하는</t>
+  </si>
+  <si>
+    <t>사용__04/NNG + 하/XSV + 는/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000280</t>
+  </si>
+  <si>
+    <t>갖가지</t>
+  </si>
+  <si>
+    <t>갖가지/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000290</t>
+  </si>
+  <si>
+    <t>직물제품을</t>
+  </si>
+  <si>
+    <t>직물/NNG + 제품__02/NNG + 을/JKO</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000300</t>
+  </si>
+  <si>
+    <t>디자인해</t>
+  </si>
+  <si>
+    <t>디자인/NNG + 하/XSV + 아/EC</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000310</t>
+  </si>
+  <si>
+    <t>최근</t>
+  </si>
+  <si>
+    <t>최근/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000320</t>
+  </si>
+  <si>
+    <t>파리의</t>
+  </si>
+  <si>
+    <t>파리/NNP + 의/JKG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000330</t>
+  </si>
+  <si>
+    <t>갤러리</t>
+  </si>
+  <si>
+    <t>갤러리/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000340</t>
+  </si>
+  <si>
+    <t>라파예트백화점에서</t>
+  </si>
+  <si>
+    <t>라파예트/NNP + 백화점/NNG + 에서/JKB</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000350</t>
+  </si>
+  <si>
+    <t>'색의</t>
+  </si>
+  <si>
+    <t>'/SS + 색__03/NNG + 의/JKG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000360</t>
+  </si>
+  <si>
+    <t>컬렉션'이라는</t>
+  </si>
+  <si>
+    <t>컬렉션/NNG + '/SS + 이/VCP + 라는/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000370</t>
+  </si>
+  <si>
+    <t>이름으로</t>
+  </si>
+  <si>
+    <t>이름/NNG + 으로/JKB</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000380</t>
+  </si>
+  <si>
+    <t>전시회를</t>
+  </si>
+  <si>
+    <t>전시회/NNG + 를/JKO</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000390</t>
+  </si>
+  <si>
+    <t>열었다.</t>
+  </si>
+  <si>
+    <t>열__02/VV + 었/EP + 다/EF + ./SF</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000400</t>
+  </si>
+  <si>
+    <t>목욕가운부터</t>
+  </si>
+  <si>
+    <t>목욕/NNG + 가운__02/NNG + 부터/JX</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000410</t>
+  </si>
+  <si>
+    <t>탁자보,</t>
+  </si>
+  <si>
+    <t>탁자보/NNG + ,/SP</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000420</t>
+  </si>
+  <si>
+    <t>냅킨,</t>
+  </si>
+  <si>
+    <t>냅킨/NNG + ,/SP</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000430</t>
+  </si>
+  <si>
+    <t>앞치마까지</t>
+  </si>
+  <si>
+    <t>앞치마/NNG + 까지/JX</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000440</t>
+  </si>
+  <si>
+    <t>그가</t>
+  </si>
+  <si>
+    <t>그/NP + 가/JKS</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000450</t>
+  </si>
+  <si>
+    <t>디자인한</t>
+  </si>
+  <si>
+    <t>디자인/NNG + 하/XSV + ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000460</t>
+  </si>
+  <si>
+    <t>작품들에서</t>
+  </si>
+  <si>
+    <t>작품__01/NNG + 들/XSN + 에서/JKB</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000470</t>
+  </si>
+  <si>
+    <t>두드러지는</t>
+  </si>
+  <si>
+    <t>두드러지/VV + 는/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000480</t>
+  </si>
+  <si>
+    <t>것은</t>
+  </si>
+  <si>
+    <t>것/NNB + 은/JX</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000490</t>
+  </si>
+  <si>
+    <t>색의</t>
+  </si>
+  <si>
+    <t>색__03/NNG + 의/JKG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000500</t>
+  </si>
+  <si>
+    <t>조화다.</t>
+  </si>
+  <si>
+    <t>조화__07/NNG + 이/VCP + 다/EF + ./SF</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000510</t>
+  </si>
+  <si>
+    <t>남미풍의</t>
+  </si>
+  <si>
+    <t>남미/NNP + 풍/XSN + 의/JKG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000520</t>
+  </si>
+  <si>
+    <t>강렬한</t>
+  </si>
+  <si>
+    <t>강렬/XR + 하/XSA + ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000530</t>
+  </si>
+  <si>
+    <t>원색끼리의</t>
+  </si>
+  <si>
+    <t>원색__02/NNG + 끼리/XSN + 의/JKG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000540</t>
+  </si>
+  <si>
+    <t>조화,</t>
+  </si>
+  <si>
+    <t>조화__07/NNG + ,/SP</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000550</t>
+  </si>
+  <si>
+    <t>수채화</t>
+  </si>
+  <si>
+    <t>수채화/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000560</t>
+  </si>
+  <si>
+    <t>같이</t>
+  </si>
+  <si>
+    <t>같이/MAG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000570</t>
+  </si>
+  <si>
+    <t>안온한</t>
+  </si>
+  <si>
+    <t>안온/NNG + 하/XSA + ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000580</t>
+  </si>
+  <si>
+    <t>배색</t>
+  </si>
+  <si>
+    <t>배색/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000590</t>
+  </si>
+  <si>
+    <t>등</t>
+  </si>
+  <si>
+    <t>등__05/NNB</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000600</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000610</t>
+  </si>
+  <si>
+    <t>분위기를</t>
+  </si>
+  <si>
+    <t>분위기/NNG + 를/JKO</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000620</t>
+  </si>
+  <si>
+    <t>강조하는</t>
+  </si>
+  <si>
+    <t>강조__02/NNG + 하/XSV + 는/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000630</t>
+  </si>
+  <si>
+    <t>기하학적</t>
+  </si>
+  <si>
+    <t>기하학/NNG + 적/XSN</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000640</t>
+  </si>
+  <si>
+    <t>무늬,</t>
+  </si>
+  <si>
+    <t>무늬/NNG + ,/SP</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000650</t>
+  </si>
+  <si>
+    <t>꽃무늬</t>
+  </si>
+  <si>
+    <t>꽃무늬/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000660</t>
+  </si>
+  <si>
+    <t>디자인이</t>
+  </si>
+  <si>
+    <t>디자인/NNG + 이/JKS</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000670</t>
+  </si>
+  <si>
+    <t>주류를</t>
+  </si>
+  <si>
+    <t>주류__01/NNG + 를/JKO</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000680</t>
+  </si>
+  <si>
+    <t>이루고</t>
+  </si>
+  <si>
+    <t>이루__01/VV + 고/EC</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000690</t>
+  </si>
+  <si>
+    <t>있다.</t>
+  </si>
+  <si>
+    <t>있/VX + 다/EF + ./SF</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000700</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000710</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000720</t>
+  </si>
+  <si>
+    <t>실내	/SS + 실내/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000730</t>
+  </si>
+  <si>
+    <t>장식품을</t>
+  </si>
+  <si>
+    <t>장식품/NNG + 을/JKO</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000740</t>
+  </si>
+  <si>
+    <t>디자인할</t>
+  </si>
+  <si>
+    <t>디자인/NNG + 하/XSV + ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000750</t>
+  </si>
+  <si>
+    <t>때</t>
+  </si>
+  <si>
+    <t>때__01/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000760</t>
+  </si>
+  <si>
+    <t>옷을</t>
+  </si>
+  <si>
+    <t>옷/NNG + 을/JKO</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000770</t>
+  </si>
+  <si>
+    <t>만들</t>
+  </si>
+  <si>
+    <t>만들/VV + ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000780</t>
+  </si>
+  <si>
+    <t>때와는</t>
+  </si>
+  <si>
+    <t>때__01/NNG + 와/JKB + 는/JX</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000790</t>
+  </si>
+  <si>
+    <t>다른</t>
+  </si>
+  <si>
+    <t>다르/VA + ㄴ/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000800</t>
+  </si>
+  <si>
+    <t>해방감을</t>
+  </si>
+  <si>
+    <t>해방감/NNG + 을/JKO</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000810</t>
+  </si>
+  <si>
+    <t>느낀다"고</t>
+  </si>
+  <si>
+    <t>느끼__02/VV + ㄴ다/EC + "/SS + 고/JKQ</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000820</t>
+  </si>
+  <si>
+    <t>말한다.</t>
+  </si>
+  <si>
+    <t>말__01/NNG + 하/XSV + ㄴ다/EF + ./SF</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000830</t>
+  </si>
+  <si>
+    <t>집은</t>
+  </si>
+  <si>
+    <t>집__01/NNG + 은/JX</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000840</t>
+  </si>
+  <si>
+    <t>창작의</t>
+  </si>
+  <si>
+    <t>창작/NNG + 의/JKG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000850</t>
+  </si>
+  <si>
+    <t>원천이라는</t>
+  </si>
+  <si>
+    <t>원천__02/NNG + 이/VCP + 라는/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000860</t>
+  </si>
+  <si>
+    <t>그는</t>
+  </si>
+  <si>
+    <t>그/NP + 는/JX</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000870</t>
+  </si>
+  <si>
+    <t>옷</t>
+  </si>
+  <si>
+    <t>옷/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000880</t>
+  </si>
+  <si>
+    <t>못지않게</t>
+  </si>
+  <si>
+    <t>못지않/VA + 게/EC</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000890</t>
+  </si>
+  <si>
+    <t>공간이</t>
+  </si>
+  <si>
+    <t>공간__05/NNG + 이/JKS</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000900</t>
+  </si>
+  <si>
+    <t>주는</t>
+  </si>
+  <si>
+    <t>주/VV + 는/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000910</t>
+  </si>
+  <si>
+    <t>미학을</t>
+  </si>
+  <si>
+    <t>미학/NNG + 을/JKO</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000920</t>
+  </si>
+  <si>
+    <t>중요시해</t>
+  </si>
+  <si>
+    <t>중요__02/NNG + 시/XSN + 하/XSV + 아/EC</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000930</t>
+  </si>
+  <si>
+    <t>왔다.</t>
+  </si>
+  <si>
+    <t>오/VX + 았/EP + 다/EF + ./SF</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000940</t>
+  </si>
+  <si>
+    <t>매일</t>
+  </si>
+  <si>
+    <t>매일/MAG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000950</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000960</t>
+  </si>
+  <si>
+    <t>1시간</t>
+  </si>
+  <si>
+    <t>1/SN + 시간__04/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000970</t>
+  </si>
+  <si>
+    <t>반</t>
+  </si>
+  <si>
+    <t>반__07/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000980</t>
+  </si>
+  <si>
+    <t>이상을</t>
+  </si>
+  <si>
+    <t>이상__05/NNG + 을/JKO</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0000990</t>
+  </si>
+  <si>
+    <t>보낸다는</t>
+  </si>
+  <si>
+    <t>보내/VV + ㄴ다는/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001000</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001010</t>
+  </si>
+  <si>
+    <t>체조와</t>
+  </si>
+  <si>
+    <t>체조__02/NNG + 와/JC</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001020</t>
+  </si>
+  <si>
+    <t>텔레비전</t>
+  </si>
+  <si>
+    <t>텔레비전/NNG</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001030</t>
+  </si>
+  <si>
+    <t>시청,</t>
+  </si>
+  <si>
+    <t>시청__03/NNG + ,/SP</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001040</t>
+  </si>
+  <si>
+    <t>식사까지</t>
+  </si>
+  <si>
+    <t>식사__03/NNG + 까지/JX</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001050</t>
+  </si>
+  <si>
+    <t>할</t>
+  </si>
+  <si>
+    <t>하/VV + ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001060</t>
+  </si>
+  <si>
+    <t>수__02/NNB</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001070</t>
+  </si>
+  <si>
+    <t>있는</t>
+  </si>
+  <si>
+    <t>있/VV + 는/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001080</t>
+  </si>
+  <si>
+    <t>욕실이</t>
+  </si>
+  <si>
+    <t>욕실/NNG + 이/JKS</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001090</t>
+  </si>
+  <si>
+    <t>나와야</t>
+  </si>
+  <si>
+    <t>나오/VV + 아야/EC</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001100</t>
+  </si>
+  <si>
+    <t>한다고</t>
+  </si>
+  <si>
+    <t>하/VX + ㄴ다고/EC</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001110</t>
+  </si>
+  <si>
+    <t>주장할</t>
+  </si>
+  <si>
+    <t>주장__03/NNG + 하/XSV + ㄹ/ETM</t>
+  </si>
+  <si>
+    <t>9BSAA0001-0001120</t>
+  </si>
+  <si>
+    <t>정도다.</t>
+  </si>
+  <si>
+    <t>정도__11/NNG + 이/VCP + 다/EF + ./SF</t>
   </si>
 </sst>
 </file>
@@ -2378,8 +3321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5760,4 +6703,1243 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C6" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>680</v>
+      </c>
+      <c r="B7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B9" t="s">
+        <v>687</v>
+      </c>
+      <c r="C9" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>689</v>
+      </c>
+      <c r="B10" t="s">
+        <v>690</v>
+      </c>
+      <c r="C10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>692</v>
+      </c>
+      <c r="B11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B12" t="s">
+        <v>696</v>
+      </c>
+      <c r="C12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>698</v>
+      </c>
+      <c r="B13" t="s">
+        <v>699</v>
+      </c>
+      <c r="C13" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>701</v>
+      </c>
+      <c r="B14" t="s">
+        <v>702</v>
+      </c>
+      <c r="C14" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>704</v>
+      </c>
+      <c r="B15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C15" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>705</v>
+      </c>
+      <c r="B16" t="s">
+        <v>706</v>
+      </c>
+      <c r="C16" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>708</v>
+      </c>
+      <c r="B17" t="s">
+        <v>678</v>
+      </c>
+      <c r="C17" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>709</v>
+      </c>
+      <c r="B18" t="s">
+        <v>710</v>
+      </c>
+      <c r="C18" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>712</v>
+      </c>
+      <c r="B19" t="s">
+        <v>713</v>
+      </c>
+      <c r="C19" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>715</v>
+      </c>
+      <c r="B20" t="s">
+        <v>716</v>
+      </c>
+      <c r="C20" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>718</v>
+      </c>
+      <c r="B21" t="s">
+        <v>719</v>
+      </c>
+      <c r="C21" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>721</v>
+      </c>
+      <c r="B22" t="s">
+        <v>722</v>
+      </c>
+      <c r="C22" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>724</v>
+      </c>
+      <c r="B23" t="s">
+        <v>725</v>
+      </c>
+      <c r="C23" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>727</v>
+      </c>
+      <c r="B24" t="s">
+        <v>728</v>
+      </c>
+      <c r="C24" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>730</v>
+      </c>
+      <c r="B25" t="s">
+        <v>731</v>
+      </c>
+      <c r="C25" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>733</v>
+      </c>
+      <c r="B26" t="s">
+        <v>734</v>
+      </c>
+      <c r="C26" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>736</v>
+      </c>
+      <c r="B27" t="s">
+        <v>737</v>
+      </c>
+      <c r="C27" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>739</v>
+      </c>
+      <c r="B28" t="s">
+        <v>740</v>
+      </c>
+      <c r="C28" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>742</v>
+      </c>
+      <c r="B29" t="s">
+        <v>743</v>
+      </c>
+      <c r="C29" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>745</v>
+      </c>
+      <c r="B30" t="s">
+        <v>746</v>
+      </c>
+      <c r="C30" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>748</v>
+      </c>
+      <c r="B31" t="s">
+        <v>749</v>
+      </c>
+      <c r="C31" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>751</v>
+      </c>
+      <c r="B32" t="s">
+        <v>752</v>
+      </c>
+      <c r="C32" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>754</v>
+      </c>
+      <c r="B33" t="s">
+        <v>755</v>
+      </c>
+      <c r="C33" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>757</v>
+      </c>
+      <c r="B34" t="s">
+        <v>758</v>
+      </c>
+      <c r="C34" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>760</v>
+      </c>
+      <c r="B35" t="s">
+        <v>761</v>
+      </c>
+      <c r="C35" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>763</v>
+      </c>
+      <c r="B36" t="s">
+        <v>764</v>
+      </c>
+      <c r="C36" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>766</v>
+      </c>
+      <c r="B37" t="s">
+        <v>767</v>
+      </c>
+      <c r="C37" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>769</v>
+      </c>
+      <c r="B38" t="s">
+        <v>770</v>
+      </c>
+      <c r="C38" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>772</v>
+      </c>
+      <c r="B39" t="s">
+        <v>773</v>
+      </c>
+      <c r="C39" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>775</v>
+      </c>
+      <c r="B40" t="s">
+        <v>776</v>
+      </c>
+      <c r="C40" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>778</v>
+      </c>
+      <c r="B41" t="s">
+        <v>779</v>
+      </c>
+      <c r="C41" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>781</v>
+      </c>
+      <c r="B42" t="s">
+        <v>782</v>
+      </c>
+      <c r="C42" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>784</v>
+      </c>
+      <c r="B43" t="s">
+        <v>785</v>
+      </c>
+      <c r="C43" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>787</v>
+      </c>
+      <c r="B44" t="s">
+        <v>788</v>
+      </c>
+      <c r="C44" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>790</v>
+      </c>
+      <c r="B45" t="s">
+        <v>791</v>
+      </c>
+      <c r="C45" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>793</v>
+      </c>
+      <c r="B46" t="s">
+        <v>794</v>
+      </c>
+      <c r="C46" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>796</v>
+      </c>
+      <c r="B47" t="s">
+        <v>797</v>
+      </c>
+      <c r="C47" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>799</v>
+      </c>
+      <c r="B48" t="s">
+        <v>800</v>
+      </c>
+      <c r="C48" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>802</v>
+      </c>
+      <c r="B49" t="s">
+        <v>803</v>
+      </c>
+      <c r="C49" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>805</v>
+      </c>
+      <c r="B50" t="s">
+        <v>806</v>
+      </c>
+      <c r="C50" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>808</v>
+      </c>
+      <c r="B51" t="s">
+        <v>809</v>
+      </c>
+      <c r="C51" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>811</v>
+      </c>
+      <c r="B52" t="s">
+        <v>812</v>
+      </c>
+      <c r="C52" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>814</v>
+      </c>
+      <c r="B53" t="s">
+        <v>815</v>
+      </c>
+      <c r="C53" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>817</v>
+      </c>
+      <c r="B54" t="s">
+        <v>818</v>
+      </c>
+      <c r="C54" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>820</v>
+      </c>
+      <c r="B55" t="s">
+        <v>821</v>
+      </c>
+      <c r="C55" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>823</v>
+      </c>
+      <c r="B56" t="s">
+        <v>824</v>
+      </c>
+      <c r="C56" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>826</v>
+      </c>
+      <c r="B57" t="s">
+        <v>827</v>
+      </c>
+      <c r="C57" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>829</v>
+      </c>
+      <c r="B58" t="s">
+        <v>830</v>
+      </c>
+      <c r="C58" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>832</v>
+      </c>
+      <c r="B59" t="s">
+        <v>800</v>
+      </c>
+      <c r="C59" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>833</v>
+      </c>
+      <c r="B60" t="s">
+        <v>834</v>
+      </c>
+      <c r="C60" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>836</v>
+      </c>
+      <c r="B61" t="s">
+        <v>837</v>
+      </c>
+      <c r="C61" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>839</v>
+      </c>
+      <c r="B62" t="s">
+        <v>840</v>
+      </c>
+      <c r="C62" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>842</v>
+      </c>
+      <c r="B63" t="s">
+        <v>843</v>
+      </c>
+      <c r="C63" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>845</v>
+      </c>
+      <c r="B64" t="s">
+        <v>846</v>
+      </c>
+      <c r="C64" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>848</v>
+      </c>
+      <c r="B65" t="s">
+        <v>849</v>
+      </c>
+      <c r="C65" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>851</v>
+      </c>
+      <c r="B66" t="s">
+        <v>852</v>
+      </c>
+      <c r="C66" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>854</v>
+      </c>
+      <c r="B67" t="s">
+        <v>855</v>
+      </c>
+      <c r="C67" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>857</v>
+      </c>
+      <c r="B68" t="s">
+        <v>858</v>
+      </c>
+      <c r="C68" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>860</v>
+      </c>
+      <c r="B69" t="s">
+        <v>666</v>
+      </c>
+      <c r="C69" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>861</v>
+      </c>
+      <c r="B70" t="s">
+        <v>722</v>
+      </c>
+      <c r="C70" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>862</v>
+      </c>
+      <c r="B71" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>864</v>
+      </c>
+      <c r="B72" t="s">
+        <v>865</v>
+      </c>
+      <c r="C72" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>867</v>
+      </c>
+      <c r="B73" t="s">
+        <v>868</v>
+      </c>
+      <c r="C73" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>870</v>
+      </c>
+      <c r="B74" t="s">
+        <v>871</v>
+      </c>
+      <c r="C74" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>873</v>
+      </c>
+      <c r="B75" t="s">
+        <v>874</v>
+      </c>
+      <c r="C75" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>876</v>
+      </c>
+      <c r="B76" t="s">
+        <v>877</v>
+      </c>
+      <c r="C76" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>879</v>
+      </c>
+      <c r="B77" t="s">
+        <v>880</v>
+      </c>
+      <c r="C77" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>882</v>
+      </c>
+      <c r="B78" t="s">
+        <v>883</v>
+      </c>
+      <c r="C78" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>885</v>
+      </c>
+      <c r="B79" t="s">
+        <v>886</v>
+      </c>
+      <c r="C79" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>888</v>
+      </c>
+      <c r="B80" t="s">
+        <v>889</v>
+      </c>
+      <c r="C80" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>891</v>
+      </c>
+      <c r="B81" t="s">
+        <v>892</v>
+      </c>
+      <c r="C81" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>894</v>
+      </c>
+      <c r="B82" t="s">
+        <v>895</v>
+      </c>
+      <c r="C82" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>897</v>
+      </c>
+      <c r="B83" t="s">
+        <v>898</v>
+      </c>
+      <c r="C83" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>900</v>
+      </c>
+      <c r="B84" t="s">
+        <v>901</v>
+      </c>
+      <c r="C84" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>903</v>
+      </c>
+      <c r="B85" t="s">
+        <v>904</v>
+      </c>
+      <c r="C85" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>906</v>
+      </c>
+      <c r="B86" t="s">
+        <v>907</v>
+      </c>
+      <c r="C86" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>909</v>
+      </c>
+      <c r="B87" t="s">
+        <v>910</v>
+      </c>
+      <c r="C87" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>912</v>
+      </c>
+      <c r="B88" t="s">
+        <v>913</v>
+      </c>
+      <c r="C88" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>915</v>
+      </c>
+      <c r="B89" t="s">
+        <v>916</v>
+      </c>
+      <c r="C89" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>918</v>
+      </c>
+      <c r="B90" t="s">
+        <v>919</v>
+      </c>
+      <c r="C90" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>921</v>
+      </c>
+      <c r="B91" t="s">
+        <v>922</v>
+      </c>
+      <c r="C91" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>924</v>
+      </c>
+      <c r="B92" t="s">
+        <v>925</v>
+      </c>
+      <c r="C92" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>927</v>
+      </c>
+      <c r="B93" t="s">
+        <v>928</v>
+      </c>
+      <c r="C93" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>930</v>
+      </c>
+      <c r="B94" t="s">
+        <v>731</v>
+      </c>
+      <c r="C94" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>931</v>
+      </c>
+      <c r="B95" t="s">
+        <v>932</v>
+      </c>
+      <c r="C95" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>934</v>
+      </c>
+      <c r="B96" t="s">
+        <v>935</v>
+      </c>
+      <c r="C96" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>937</v>
+      </c>
+      <c r="B97" t="s">
+        <v>938</v>
+      </c>
+      <c r="C97" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>940</v>
+      </c>
+      <c r="B98" t="s">
+        <v>941</v>
+      </c>
+      <c r="C98" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>943</v>
+      </c>
+      <c r="B99" t="s">
+        <v>904</v>
+      </c>
+      <c r="C99" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>944</v>
+      </c>
+      <c r="B100" t="s">
+        <v>945</v>
+      </c>
+      <c r="C100" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>947</v>
+      </c>
+      <c r="B101" t="s">
+        <v>948</v>
+      </c>
+      <c r="C101" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>950</v>
+      </c>
+      <c r="B102" t="s">
+        <v>951</v>
+      </c>
+      <c r="C102" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>953</v>
+      </c>
+      <c r="B103" t="s">
+        <v>954</v>
+      </c>
+      <c r="C103" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>956</v>
+      </c>
+      <c r="B104" t="s">
+        <v>957</v>
+      </c>
+      <c r="C104" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>959</v>
+      </c>
+      <c r="B105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>961</v>
+      </c>
+      <c r="B106" t="s">
+        <v>962</v>
+      </c>
+      <c r="C106" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>964</v>
+      </c>
+      <c r="B107" t="s">
+        <v>965</v>
+      </c>
+      <c r="C107" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>967</v>
+      </c>
+      <c r="B108" t="s">
+        <v>968</v>
+      </c>
+      <c r="C108" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>970</v>
+      </c>
+      <c r="B109" t="s">
+        <v>971</v>
+      </c>
+      <c r="C109" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>973</v>
+      </c>
+      <c r="B110" t="s">
+        <v>974</v>
+      </c>
+      <c r="C110" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>976</v>
+      </c>
+      <c r="B111" t="s">
+        <v>977</v>
+      </c>
+      <c r="C111" t="s">
+        <v>978</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>